--- a/build_model/input/RIBOSOME_nucleus.xlsx
+++ b/build_model/input/RIBOSOME_nucleus.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$E$140</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$140</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$140</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$E$140</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -895,7 +895,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -916,11 +916,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -965,7 +960,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -980,10 +975,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1009,11 +1000,11 @@
   </sheetPr>
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E136" activeCellId="0" sqref="E136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.11"/>
@@ -1047,14 +1038,14 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>36.77849</v>
+        <v>35.10095</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="3" t="n">
         <f aca="false">SUMPRODUCT(E2:E140) - H3</f>
-        <v>1482.01686</v>
+        <v>1440.77992</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,7 +1059,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>28.81896</v>
+        <v>28.24006</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>11</v>
@@ -1094,7 +1085,7 @@
       <c r="E4" s="2"/>
       <c r="H4" s="0" t="n">
         <f aca="false">H2+H3</f>
-        <v>3247.39686</v>
+        <v>3206.15992</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1108,7 +1099,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>12.50195</v>
+        <v>12.82831</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1137,7 +1128,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>18.60313</v>
+        <v>17.91277</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,7 +1157,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>17.49409</v>
+        <v>15.58649</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,7 +1171,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>16.75301</v>
+        <v>17.17787</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,7 +1185,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>15.73045</v>
+        <v>14.66751</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1223,7 +1214,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>16.20757</v>
+        <v>16.14081</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1237,7 +1228,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>16.72377</v>
+        <v>15.98838</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1266,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>15.85194</v>
+        <v>15.92327</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,7 +1286,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>17.08815</v>
+        <v>17.17742</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1324,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>16.64956</v>
+        <v>16.049</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>30.38943</v>
+        <v>29.00017</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1382,7 +1373,7 @@
         <v>7</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>29.76555</v>
+        <v>27.70564</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,7 +1387,7 @@
         <v>7</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>14.6439</v>
+        <v>14.01495</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,7 +1401,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>10.14094</v>
+        <v>9.81372</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,7 +1430,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>14.97972</v>
+        <v>14.74694</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,7 +1459,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>17.613</v>
+        <v>16.18777</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>16.12406</v>
+        <v>15.46468</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,7 +1517,7 @@
         <v>7</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>12.11006</v>
+        <v>12.14525</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1555,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>13.74758</v>
+        <v>13.62784</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1584,7 +1575,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>9.72258</v>
+        <v>8.94931</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>8.09352</v>
+        <v>7.64575</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1642,7 +1633,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>6.56084</v>
+        <v>6.70762</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1671,7 +1662,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>27.71375</v>
+        <v>26.73156</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,7 +1676,7 @@
         <v>7</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>7.81347</v>
+        <v>7.1795</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1714,7 +1705,7 @@
         <v>7</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>18.32237</v>
+        <v>17.36803</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,7 +1719,7 @@
         <v>7</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>30.80252</v>
+        <v>29.67496</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1757,7 +1748,7 @@
         <v>7</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>25.98061</v>
+        <v>25.24736</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1771,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>27.5445</v>
+        <v>27.2412</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>22.30145</v>
+        <v>21.80408</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,7 +1820,7 @@
         <v>7</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>22.23483</v>
+        <v>22.69859</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1858,7 +1849,7 @@
         <v>7</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>22.09907</v>
+        <v>22.63467</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1886,7 +1877,7 @@
       <c r="C59" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="4" t="n">
+      <c r="E59" s="2" t="n">
         <v>581.85</v>
       </c>
     </row>
@@ -1901,7 +1892,7 @@
         <v>126</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>25.65571</v>
+        <v>25.58522</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,7 +1906,7 @@
         <v>126</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>20.41192</v>
+        <v>19.88745</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,7 +1935,7 @@
         <v>126</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>18.96832</v>
+        <v>17.97554</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,7 +1964,7 @@
         <v>126</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>22.35655</v>
+        <v>22.76097</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2002,7 +1993,7 @@
         <v>126</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>16.08506</v>
+        <v>15.30603</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,7 +2022,7 @@
         <v>126</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>24.1329</v>
+        <v>24.64906</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2060,7 +2051,7 @@
         <v>126</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>23.48002</v>
+        <v>22.40905</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2089,7 +2080,7 @@
         <v>126</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>20.6824</v>
+        <v>20.73837</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,7 +2109,7 @@
         <v>126</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>21.43267</v>
+        <v>20.76107</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2147,7 +2138,7 @@
         <v>126</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>21.57414</v>
+        <v>21.90709</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,7 +2167,7 @@
         <v>126</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>26.4911</v>
+        <v>24.70063</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2205,7 +2196,7 @@
         <v>126</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>19.92454</v>
+        <v>20.61065</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,7 +2225,7 @@
         <v>126</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>19.13467</v>
+        <v>18.40409</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,7 +2254,7 @@
         <v>126</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>14.40077</v>
+        <v>13.79518</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2292,7 +2283,7 @@
         <v>126</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>16.15154</v>
+        <v>14.6039</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2321,7 +2312,7 @@
         <v>126</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>17.5463</v>
+        <v>17.7836</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,7 +2341,7 @@
         <v>126</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>16.46378</v>
+        <v>15.89952</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2364,7 +2355,7 @@
         <v>126</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>14.9066</v>
+        <v>14.36071</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2393,7 +2384,7 @@
         <v>126</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>16.64142</v>
+        <v>15.66922</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,7 +2398,7 @@
         <v>126</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>17.50449</v>
+        <v>16.87251</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,7 +2412,7 @@
         <v>126</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>6.76698</v>
+        <v>6.72582</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2435,7 +2426,7 @@
         <v>126</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>45.42672</v>
+        <v>44.16636</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,7 +2440,7 @@
         <v>126</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>12.08045</v>
+        <v>11.51032</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,7 +2454,7 @@
         <v>126</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>13.50787</v>
+        <v>13.05703</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2492,7 +2483,7 @@
         <v>126</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>14.97762</v>
+        <v>14.90631</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2506,7 +2497,7 @@
         <v>126</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>12.46001</v>
+        <v>12.25903</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2535,7 +2526,7 @@
         <v>126</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>14.22767</v>
+        <v>13.76709</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,7 +2555,7 @@
         <v>126</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>14.03768</v>
+        <v>14.0346</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2593,7 +2584,7 @@
         <v>126</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>11.00502</v>
+        <v>11.2262</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2622,7 +2613,7 @@
         <v>126</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>10.15397</v>
+        <v>9.94227</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,7 +2642,7 @@
         <v>126</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>8.98386</v>
+        <v>8.90051</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2665,7 +2656,7 @@
         <v>126</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>5.70815</v>
+        <v>6.39161</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2679,7 +2670,7 @@
         <v>126</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>14.91474</v>
+        <v>14.67796</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,7 +2699,7 @@
         <v>126</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>2.85237</v>
+        <v>3.3612</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,7 +2728,7 @@
         <v>126</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>13.28759</v>
+        <v>12.32652</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,7 +2757,7 @@
         <v>126</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>10.6884</v>
+        <v>10.18185</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,7 +2786,7 @@
         <v>126</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>42.16998</v>
+        <v>39.46991</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2824,7 +2815,7 @@
         <v>126</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>33.05746</v>
+        <v>33.99141</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2838,7 +2829,7 @@
         <v>126</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>21.03919</v>
+        <v>20.13844</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2867,7 +2858,7 @@
         <v>126</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>27.70316</v>
+        <v>27.88812</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2896,7 +2887,7 @@
         <v>126</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>29.93789</v>
+        <v>28.38765</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2925,7 +2916,7 @@
         <v>126</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>23.16517</v>
+        <v>21.75278</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2954,7 +2945,7 @@
         <v>126</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>35.80443</v>
+        <v>33.99484</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2968,7 +2959,7 @@
         <v>126</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>11.53729</v>
+        <v>10.97777</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,7 +2973,7 @@
         <v>126</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>11.23183</v>
+        <v>10.73842</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,7 +2987,7 @@
         <v>126</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>11.40999</v>
+        <v>10.81665</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,7 +3001,7 @@
         <v>126</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>12.03165</v>
+        <v>11.12696</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3023,7 +3014,7 @@
       <c r="C138" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E138" s="4" t="n">
+      <c r="E138" s="2" t="n">
         <v>1094.09</v>
       </c>
     </row>
@@ -3037,7 +3028,7 @@
       <c r="C139" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E139" s="4" t="n">
+      <c r="E139" s="2" t="n">
         <v>50.57</v>
       </c>
     </row>
@@ -3051,12 +3042,12 @@
       <c r="C140" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E140" s="4" t="n">
+      <c r="E140" s="2" t="n">
         <v>38.87</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E140"/>
+  <autoFilter ref="A1:D140"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
